--- a/medicine/Psychotrope/Cafés_Merling/Cafés_Merling.xlsx
+++ b/medicine/Psychotrope/Cafés_Merling/Cafés_Merling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9s_Merling</t>
+          <t>Cafés_Merling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cafés Merling est une entreprise française active dans le marché du café. Elle a été fondée à La Rochelle (Charente-Maritime) par Vincent Merling en 1979.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9s_Merling</t>
+          <t>Cafés_Merling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1979, Vincent Merling, alors commercial chez Rank Xerox décide de créer sa société de torréfaction avec pour objectif de coupler la vente de café à une offre de service avec la fourniture des percolateurs et leur maintenance[3].
-Au début des années 1990, l'entreprise se développe en proposant la mise en place de machines à café automatiques dans les entreprises. En 2014, cette activité représente 80 % du chiffre d'affaires de l'entreprise[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, Vincent Merling, alors commercial chez Rank Xerox décide de créer sa société de torréfaction avec pour objectif de coupler la vente de café à une offre de service avec la fourniture des percolateurs et leur maintenance.
+Au début des années 1990, l'entreprise se développe en proposant la mise en place de machines à café automatiques dans les entreprises. En 2014, cette activité représente 80 % du chiffre d'affaires de l'entreprise.
 </t>
         </is>
       </c>
